--- a/data_templates/Maintenance_Task_List.xlsx
+++ b/data_templates/Maintenance_Task_List.xlsx
@@ -14,33 +14,255 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="83">
+  <si>
+    <t>Equipment ID</t>
+  </si>
   <si>
     <t>Task ID</t>
   </si>
   <si>
+    <t>Task Type</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Duration (hrs)</t>
-  </si>
-  <si>
     <t>Frequency</t>
   </si>
   <si>
-    <t>Responsible</t>
-  </si>
-  <si>
-    <t>MT001</t>
-  </si>
-  <si>
-    <t>Inspect Brake Pads</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>Maintenance</t>
+    <t>EQ001</t>
+  </si>
+  <si>
+    <t>EQ002</t>
+  </si>
+  <si>
+    <t>EQ003</t>
+  </si>
+  <si>
+    <t>EQ004</t>
+  </si>
+  <si>
+    <t>EQ005</t>
+  </si>
+  <si>
+    <t>EQ006</t>
+  </si>
+  <si>
+    <t>EQ007</t>
+  </si>
+  <si>
+    <t>EQ008</t>
+  </si>
+  <si>
+    <t>EQ009</t>
+  </si>
+  <si>
+    <t>EQ010</t>
+  </si>
+  <si>
+    <t>EQ011</t>
+  </si>
+  <si>
+    <t>EQ012</t>
+  </si>
+  <si>
+    <t>EQ013</t>
+  </si>
+  <si>
+    <t>EQ014</t>
+  </si>
+  <si>
+    <t>EQ015</t>
+  </si>
+  <si>
+    <t>EQ016</t>
+  </si>
+  <si>
+    <t>EQ017</t>
+  </si>
+  <si>
+    <t>EQ018</t>
+  </si>
+  <si>
+    <t>EQ019</t>
+  </si>
+  <si>
+    <t>EQ020</t>
+  </si>
+  <si>
+    <t>EQ021</t>
+  </si>
+  <si>
+    <t>EQ022</t>
+  </si>
+  <si>
+    <t>EQ023</t>
+  </si>
+  <si>
+    <t>EQ024</t>
+  </si>
+  <si>
+    <t>EQ025</t>
+  </si>
+  <si>
+    <t>EQ026</t>
+  </si>
+  <si>
+    <t>EQ027</t>
+  </si>
+  <si>
+    <t>EQ028</t>
+  </si>
+  <si>
+    <t>EQ029</t>
+  </si>
+  <si>
+    <t>EQ030</t>
+  </si>
+  <si>
+    <t>EQ031</t>
+  </si>
+  <si>
+    <t>EQ032</t>
+  </si>
+  <si>
+    <t>EQ033</t>
+  </si>
+  <si>
+    <t>EQ034</t>
+  </si>
+  <si>
+    <t>EQ035</t>
+  </si>
+  <si>
+    <t>EQ036</t>
+  </si>
+  <si>
+    <t>EQ037</t>
+  </si>
+  <si>
+    <t>EQ038</t>
+  </si>
+  <si>
+    <t>EQ039</t>
+  </si>
+  <si>
+    <t>EQ040</t>
+  </si>
+  <si>
+    <t>EQ041</t>
+  </si>
+  <si>
+    <t>EQ042</t>
+  </si>
+  <si>
+    <t>EQ043</t>
+  </si>
+  <si>
+    <t>EQ044</t>
+  </si>
+  <si>
+    <t>EQ045</t>
+  </si>
+  <si>
+    <t>EQ046</t>
+  </si>
+  <si>
+    <t>EQ047</t>
+  </si>
+  <si>
+    <t>EQ048</t>
+  </si>
+  <si>
+    <t>EQ049</t>
+  </si>
+  <si>
+    <t>EQ050</t>
+  </si>
+  <si>
+    <t>INSPECT_MOTOR</t>
+  </si>
+  <si>
+    <t>LUBE_MOTOR</t>
+  </si>
+  <si>
+    <t>INSPECT_MILL</t>
+  </si>
+  <si>
+    <t>LUBE_MILL</t>
+  </si>
+  <si>
+    <t>INSPECT_PUMP</t>
+  </si>
+  <si>
+    <t>LUBE_PUMP</t>
+  </si>
+  <si>
+    <t>INSPECT_UG_CONVEYOR</t>
+  </si>
+  <si>
+    <t>LUBE_UG_CONVEYOR</t>
+  </si>
+  <si>
+    <t>INSPECT_FAN</t>
+  </si>
+  <si>
+    <t>LUBE_FAN</t>
+  </si>
+  <si>
+    <t>INSPECT_HOIST</t>
+  </si>
+  <si>
+    <t>LUBE_HOIST</t>
+  </si>
+  <si>
+    <t>Inspection</t>
+  </si>
+  <si>
+    <t>Lubrication</t>
+  </si>
+  <si>
+    <t>Inspect motor annually</t>
+  </si>
+  <si>
+    <t>Lubricate motor bearings</t>
+  </si>
+  <si>
+    <t>Inspect mill annually</t>
+  </si>
+  <si>
+    <t>Lubricate mill bearings</t>
+  </si>
+  <si>
+    <t>Inspect pump annually</t>
+  </si>
+  <si>
+    <t>Lubricate pump bearings</t>
+  </si>
+  <si>
+    <t>Inspect ug_conveyor annually</t>
+  </si>
+  <si>
+    <t>Lubricate ug_conveyor bearings</t>
+  </si>
+  <si>
+    <t>Inspect fan annually</t>
+  </si>
+  <si>
+    <t>Lubricate fan bearings</t>
+  </si>
+  <si>
+    <t>Inspect hoist annually</t>
+  </si>
+  <si>
+    <t>Lubricate hoist bearings</t>
+  </si>
+  <si>
+    <t>365 days</t>
+  </si>
+  <si>
+    <t>90 days</t>
   </si>
 </sst>
 </file>
@@ -398,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,16 +648,1699 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>74</v>
+      </c>
+      <c r="E51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>78</v>
+      </c>
+      <c r="E55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" t="s">
+        <v>73</v>
+      </c>
+      <c r="E56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>74</v>
+      </c>
+      <c r="E57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" t="s">
+        <v>77</v>
+      </c>
+      <c r="E58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>78</v>
+      </c>
+      <c r="E59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" t="s">
+        <v>79</v>
+      </c>
+      <c r="E60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>80</v>
+      </c>
+      <c r="E61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" t="s">
+        <v>67</v>
+      </c>
+      <c r="D62" t="s">
+        <v>73</v>
+      </c>
+      <c r="E62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>74</v>
+      </c>
+      <c r="E63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" t="s">
+        <v>77</v>
+      </c>
+      <c r="E64" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>78</v>
+      </c>
+      <c r="E65" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>37</v>
+      </c>
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>67</v>
+      </c>
+      <c r="D66" t="s">
+        <v>79</v>
+      </c>
+      <c r="E66" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>80</v>
+      </c>
+      <c r="E67" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" t="s">
+        <v>67</v>
+      </c>
+      <c r="D68" t="s">
+        <v>71</v>
+      </c>
+      <c r="E68" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>72</v>
+      </c>
+      <c r="E69" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70" t="s">
+        <v>75</v>
+      </c>
+      <c r="E70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>39</v>
+      </c>
+      <c r="B71" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>76</v>
+      </c>
+      <c r="E71" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>40</v>
+      </c>
+      <c r="B72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" t="s">
+        <v>67</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73" t="s">
+        <v>56</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>70</v>
+      </c>
+      <c r="E73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>41</v>
+      </c>
+      <c r="B74" t="s">
+        <v>65</v>
+      </c>
+      <c r="C74" t="s">
+        <v>67</v>
+      </c>
+      <c r="D74" t="s">
+        <v>79</v>
+      </c>
+      <c r="E74" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>41</v>
+      </c>
+      <c r="B75" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>80</v>
+      </c>
+      <c r="E75" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76" t="s">
+        <v>67</v>
+      </c>
+      <c r="D76" t="s">
+        <v>71</v>
+      </c>
+      <c r="E76" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>42</v>
+      </c>
+      <c r="B77" t="s">
+        <v>58</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>72</v>
+      </c>
+      <c r="E77" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" t="s">
+        <v>57</v>
+      </c>
+      <c r="C78" t="s">
+        <v>67</v>
+      </c>
+      <c r="D78" t="s">
+        <v>71</v>
+      </c>
+      <c r="E78" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>43</v>
+      </c>
+      <c r="B79" t="s">
+        <v>58</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>72</v>
+      </c>
+      <c r="E79" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>44</v>
+      </c>
+      <c r="B80" t="s">
+        <v>57</v>
+      </c>
+      <c r="C80" t="s">
+        <v>67</v>
+      </c>
+      <c r="D80" t="s">
+        <v>71</v>
+      </c>
+      <c r="E80" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>44</v>
+      </c>
+      <c r="B81" t="s">
+        <v>58</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>72</v>
+      </c>
+      <c r="E81" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>45</v>
+      </c>
+      <c r="B82" t="s">
+        <v>61</v>
+      </c>
+      <c r="C82" t="s">
+        <v>67</v>
+      </c>
+      <c r="D82" t="s">
+        <v>75</v>
+      </c>
+      <c r="E82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>45</v>
+      </c>
+      <c r="B83" t="s">
+        <v>62</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>76</v>
+      </c>
+      <c r="E83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84" t="s">
+        <v>59</v>
+      </c>
+      <c r="C84" t="s">
+        <v>67</v>
+      </c>
+      <c r="D84" t="s">
+        <v>73</v>
+      </c>
+      <c r="E84" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>46</v>
+      </c>
+      <c r="B85" t="s">
+        <v>60</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>74</v>
+      </c>
+      <c r="E85" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>47</v>
+      </c>
+      <c r="B86" t="s">
+        <v>55</v>
+      </c>
+      <c r="C86" t="s">
+        <v>67</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>47</v>
+      </c>
+      <c r="B87" t="s">
+        <v>56</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>70</v>
+      </c>
+      <c r="E87" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>48</v>
+      </c>
+      <c r="B88" t="s">
+        <v>63</v>
+      </c>
+      <c r="C88" t="s">
+        <v>67</v>
+      </c>
+      <c r="D88" t="s">
+        <v>77</v>
+      </c>
+      <c r="E88" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>48</v>
+      </c>
+      <c r="B89" t="s">
+        <v>64</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>78</v>
+      </c>
+      <c r="E89" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>49</v>
+      </c>
+      <c r="B90" t="s">
+        <v>55</v>
+      </c>
+      <c r="C90" t="s">
+        <v>67</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>49</v>
+      </c>
+      <c r="B91" t="s">
+        <v>56</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>70</v>
+      </c>
+      <c r="E91" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>50</v>
+      </c>
+      <c r="B92" t="s">
+        <v>55</v>
+      </c>
+      <c r="C92" t="s">
+        <v>67</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>50</v>
+      </c>
+      <c r="B93" t="s">
+        <v>56</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>70</v>
+      </c>
+      <c r="E93" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>51</v>
+      </c>
+      <c r="B94" t="s">
+        <v>59</v>
+      </c>
+      <c r="C94" t="s">
+        <v>67</v>
+      </c>
+      <c r="D94" t="s">
+        <v>73</v>
+      </c>
+      <c r="E94" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>51</v>
+      </c>
+      <c r="B95" t="s">
+        <v>60</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>74</v>
+      </c>
+      <c r="E95" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>52</v>
+      </c>
+      <c r="B96" t="s">
+        <v>65</v>
+      </c>
+      <c r="C96" t="s">
+        <v>67</v>
+      </c>
+      <c r="D96" t="s">
+        <v>79</v>
+      </c>
+      <c r="E96" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>52</v>
+      </c>
+      <c r="B97" t="s">
+        <v>66</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>80</v>
+      </c>
+      <c r="E97" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>53</v>
+      </c>
+      <c r="B98" t="s">
+        <v>63</v>
+      </c>
+      <c r="C98" t="s">
+        <v>67</v>
+      </c>
+      <c r="D98" t="s">
+        <v>77</v>
+      </c>
+      <c r="E98" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>53</v>
+      </c>
+      <c r="B99" t="s">
+        <v>64</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>78</v>
+      </c>
+      <c r="E99" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>54</v>
+      </c>
+      <c r="B100" t="s">
+        <v>65</v>
+      </c>
+      <c r="C100" t="s">
+        <v>67</v>
+      </c>
+      <c r="D100" t="s">
+        <v>79</v>
+      </c>
+      <c r="E100" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>54</v>
+      </c>
+      <c r="B101" t="s">
+        <v>66</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>80</v>
+      </c>
+      <c r="E101" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/data_templates/Maintenance_Task_List.xlsx
+++ b/data_templates/Maintenance_Task_List.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loictiemani/Desktop/MasterDataGovernance/Untitled/Master-Data-Governance-SAP/data_templates/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDDECDE-5C02-E74D-871B-CC835FECDFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -268,8 +274,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,13 +338,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -376,7 +390,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -410,6 +424,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -444,9 +459,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -619,14 +635,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -643,7 +668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -660,7 +685,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -677,7 +702,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -694,7 +719,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -711,7 +736,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -728,7 +753,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -745,7 +770,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -762,7 +787,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -779,7 +804,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -796,7 +821,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -813,7 +838,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -830,7 +855,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -847,7 +872,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -864,7 +889,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -881,7 +906,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -898,7 +923,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -915,7 +940,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -932,7 +957,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -949,7 +974,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -966,7 +991,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -983,7 +1008,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1000,7 +1025,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1017,7 +1042,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1034,7 +1059,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1051,7 +1076,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1068,7 +1093,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1085,7 +1110,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -1102,7 +1127,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1119,7 +1144,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -1136,7 +1161,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1153,7 +1178,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1170,7 +1195,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -1187,7 +1212,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -1204,7 +1229,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -1221,7 +1246,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -1238,7 +1263,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -1255,7 +1280,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -1272,7 +1297,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -1289,7 +1314,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -1306,7 +1331,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -1323,7 +1348,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -1340,7 +1365,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -1357,7 +1382,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -1374,7 +1399,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -1391,7 +1416,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -1408,7 +1433,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -1425,7 +1450,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -1442,7 +1467,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -1459,7 +1484,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -1476,7 +1501,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -1493,7 +1518,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -1510,7 +1535,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -1527,7 +1552,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>31</v>
       </c>
@@ -1544,7 +1569,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -1561,7 +1586,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>32</v>
       </c>
@@ -1578,7 +1603,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>32</v>
       </c>
@@ -1595,7 +1620,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -1612,7 +1637,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -1629,7 +1654,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -1646,7 +1671,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>34</v>
       </c>
@@ -1663,7 +1688,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -1680,7 +1705,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>35</v>
       </c>
@@ -1697,7 +1722,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>36</v>
       </c>
@@ -1714,7 +1739,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>36</v>
       </c>
@@ -1731,7 +1756,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>37</v>
       </c>
@@ -1748,7 +1773,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>37</v>
       </c>
@@ -1765,7 +1790,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>38</v>
       </c>
@@ -1782,7 +1807,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>38</v>
       </c>
@@ -1799,7 +1824,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>39</v>
       </c>
@@ -1816,7 +1841,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>39</v>
       </c>
@@ -1833,7 +1858,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>40</v>
       </c>
@@ -1850,7 +1875,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>40</v>
       </c>
@@ -1867,7 +1892,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>41</v>
       </c>
@@ -1884,7 +1909,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>41</v>
       </c>
@@ -1901,7 +1926,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>42</v>
       </c>
@@ -1918,7 +1943,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>42</v>
       </c>
@@ -1935,7 +1960,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>43</v>
       </c>
@@ -1952,7 +1977,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>43</v>
       </c>
@@ -1969,7 +1994,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>44</v>
       </c>
@@ -1986,7 +2011,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>44</v>
       </c>
@@ -2003,7 +2028,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>45</v>
       </c>
@@ -2020,7 +2045,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>45</v>
       </c>
@@ -2037,7 +2062,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>46</v>
       </c>
@@ -2054,7 +2079,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>46</v>
       </c>
@@ -2071,7 +2096,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>47</v>
       </c>
@@ -2088,7 +2113,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>47</v>
       </c>
@@ -2105,7 +2130,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>48</v>
       </c>
@@ -2122,7 +2147,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>48</v>
       </c>
@@ -2139,7 +2164,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>49</v>
       </c>
@@ -2156,7 +2181,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>49</v>
       </c>
@@ -2173,7 +2198,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>50</v>
       </c>
@@ -2190,7 +2215,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>50</v>
       </c>
@@ -2207,7 +2232,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>51</v>
       </c>
@@ -2224,7 +2249,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>51</v>
       </c>
@@ -2241,7 +2266,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>52</v>
       </c>
@@ -2258,7 +2283,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>52</v>
       </c>
@@ -2275,7 +2300,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>53</v>
       </c>
@@ -2292,7 +2317,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>53</v>
       </c>
@@ -2309,7 +2334,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>54</v>
       </c>
@@ -2326,7 +2351,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>54</v>
       </c>

--- a/data_templates/Maintenance_Task_List.xlsx
+++ b/data_templates/Maintenance_Task_List.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loictiemani/Desktop/MasterDataGovernance/Untitled/Master-Data-Governance-SAP/data_templates/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDDECDE-5C02-E74D-871B-CC835FECDFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -274,8 +268,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,21 +332,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -390,7 +376,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -424,7 +410,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -459,10 +444,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -635,23 +619,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,7 +643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -685,7 +660,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -702,7 +677,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -719,7 +694,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -736,7 +711,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -753,7 +728,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -770,7 +745,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -787,7 +762,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -804,7 +779,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -821,7 +796,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -838,7 +813,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -855,7 +830,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -872,7 +847,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -889,7 +864,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -906,7 +881,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -923,7 +898,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -940,7 +915,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -957,7 +932,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -974,7 +949,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -991,7 +966,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1008,7 +983,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1025,7 +1000,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1042,7 +1017,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1059,7 +1034,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1076,7 +1051,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1093,7 +1068,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1110,7 +1085,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -1127,7 +1102,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1144,7 +1119,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -1161,7 +1136,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1178,7 +1153,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1195,7 +1170,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -1212,7 +1187,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -1229,7 +1204,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -1246,7 +1221,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -1263,7 +1238,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -1280,7 +1255,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -1297,7 +1272,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -1314,7 +1289,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -1331,7 +1306,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -1348,7 +1323,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -1365,7 +1340,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -1382,7 +1357,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -1399,7 +1374,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -1416,7 +1391,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -1433,7 +1408,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -1450,7 +1425,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -1467,7 +1442,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -1484,7 +1459,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -1501,7 +1476,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -1518,7 +1493,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -1535,7 +1510,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -1552,7 +1527,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>31</v>
       </c>
@@ -1569,7 +1544,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -1586,7 +1561,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>32</v>
       </c>
@@ -1603,7 +1578,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>32</v>
       </c>
@@ -1620,7 +1595,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -1637,7 +1612,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -1654,7 +1629,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -1671,7 +1646,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>34</v>
       </c>
@@ -1688,7 +1663,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -1705,7 +1680,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>35</v>
       </c>
@@ -1722,7 +1697,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>36</v>
       </c>
@@ -1739,7 +1714,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>36</v>
       </c>
@@ -1756,7 +1731,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>37</v>
       </c>
@@ -1773,7 +1748,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>37</v>
       </c>
@@ -1790,7 +1765,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>38</v>
       </c>
@@ -1807,7 +1782,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>38</v>
       </c>
@@ -1824,7 +1799,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>39</v>
       </c>
@@ -1841,7 +1816,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>39</v>
       </c>
@@ -1858,7 +1833,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>40</v>
       </c>
@@ -1875,7 +1850,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>40</v>
       </c>
@@ -1892,7 +1867,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>41</v>
       </c>
@@ -1909,7 +1884,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>41</v>
       </c>
@@ -1926,7 +1901,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>42</v>
       </c>
@@ -1943,7 +1918,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>42</v>
       </c>
@@ -1960,7 +1935,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>43</v>
       </c>
@@ -1977,7 +1952,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>43</v>
       </c>
@@ -1994,7 +1969,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>44</v>
       </c>
@@ -2011,7 +1986,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>44</v>
       </c>
@@ -2028,7 +2003,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>45</v>
       </c>
@@ -2045,7 +2020,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>45</v>
       </c>
@@ -2062,7 +2037,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>46</v>
       </c>
@@ -2079,7 +2054,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>46</v>
       </c>
@@ -2096,7 +2071,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>47</v>
       </c>
@@ -2113,7 +2088,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>47</v>
       </c>
@@ -2130,7 +2105,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>48</v>
       </c>
@@ -2147,7 +2122,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>48</v>
       </c>
@@ -2164,7 +2139,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>49</v>
       </c>
@@ -2181,7 +2156,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>49</v>
       </c>
@@ -2198,7 +2173,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>50</v>
       </c>
@@ -2215,7 +2190,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>50</v>
       </c>
@@ -2232,7 +2207,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>51</v>
       </c>
@@ -2249,7 +2224,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>51</v>
       </c>
@@ -2266,7 +2241,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>52</v>
       </c>
@@ -2283,7 +2258,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>52</v>
       </c>
@@ -2300,7 +2275,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>53</v>
       </c>
@@ -2317,7 +2292,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>53</v>
       </c>
@@ -2334,7 +2309,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>54</v>
       </c>
@@ -2351,7 +2326,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>54</v>
       </c>
